--- a/Code/Results/Cases/Case_7_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.96981044859862</v>
+        <v>13.2645465054691</v>
       </c>
       <c r="C2">
-        <v>13.33706006052484</v>
+        <v>6.53666585142241</v>
       </c>
       <c r="D2">
-        <v>3.665871440966828</v>
+        <v>4.617519380681039</v>
       </c>
       <c r="E2">
-        <v>6.739279555009229</v>
+        <v>6.475096896635329</v>
       </c>
       <c r="F2">
-        <v>64.90103148540378</v>
+        <v>66.69143315664583</v>
       </c>
       <c r="G2">
-        <v>2.107088470735208</v>
+        <v>2.155086945019933</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.376182752990414</v>
+        <v>7.504529223127647</v>
       </c>
       <c r="K2">
-        <v>17.29890941924916</v>
+        <v>11.26836243608303</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.53318677730827</v>
+        <v>12.53679098909356</v>
       </c>
       <c r="C3">
-        <v>12.32380733674054</v>
+        <v>6.029483912040448</v>
       </c>
       <c r="D3">
-        <v>3.469683794406848</v>
+        <v>4.392425648888571</v>
       </c>
       <c r="E3">
-        <v>6.5716121340731</v>
+        <v>6.30439219132932</v>
       </c>
       <c r="F3">
-        <v>61.51424916701988</v>
+        <v>63.55604530536925</v>
       </c>
       <c r="G3">
-        <v>2.121647492586654</v>
+        <v>2.166424119420016</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.203624858395139</v>
+        <v>7.342358555509561</v>
       </c>
       <c r="K3">
-        <v>16.00126006216399</v>
+        <v>10.74552200111549</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72668312308937</v>
+        <v>12.0852735884518</v>
       </c>
       <c r="C4">
-        <v>11.67824933373899</v>
+        <v>5.706516786262716</v>
       </c>
       <c r="D4">
-        <v>3.346993805137362</v>
+        <v>4.250748854875678</v>
       </c>
       <c r="E4">
-        <v>6.476111719687748</v>
+        <v>6.20744639558542</v>
       </c>
       <c r="F4">
-        <v>59.40149279859941</v>
+        <v>61.58974035426383</v>
       </c>
       <c r="G4">
-        <v>2.130714660851957</v>
+        <v>2.173523606624553</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.101775131918292</v>
+        <v>7.245745561053305</v>
       </c>
       <c r="K4">
-        <v>15.20626436195327</v>
+        <v>10.42713882825646</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.39358938045635</v>
+        <v>11.90030761799205</v>
       </c>
       <c r="C5">
-        <v>11.40912040489413</v>
+        <v>5.57194374975389</v>
       </c>
       <c r="D5">
-        <v>3.296386608009677</v>
+        <v>4.192101569915279</v>
       </c>
       <c r="E5">
-        <v>6.439033181871766</v>
+        <v>6.169910998731043</v>
       </c>
       <c r="F5">
-        <v>58.5324172115083</v>
+        <v>60.77858126673439</v>
       </c>
       <c r="G5">
-        <v>2.134447370095989</v>
+        <v>2.176454611199561</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.061274825871733</v>
+        <v>7.207119145097771</v>
       </c>
       <c r="K5">
-        <v>14.93858129708795</v>
+        <v>10.29821357959291</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.33801711004243</v>
+        <v>11.86954267647665</v>
       </c>
       <c r="C6">
-        <v>11.36406166377433</v>
+        <v>5.549417900526544</v>
       </c>
       <c r="D6">
-        <v>3.287945208849743</v>
+        <v>4.182307024091241</v>
       </c>
       <c r="E6">
-        <v>6.432986394707352</v>
+        <v>6.163797004102912</v>
       </c>
       <c r="F6">
-        <v>58.38762945173447</v>
+        <v>60.64330934590774</v>
       </c>
       <c r="G6">
-        <v>2.135069617499321</v>
+        <v>2.176943677508483</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.054609725216182</v>
+        <v>7.200750223862487</v>
       </c>
       <c r="K6">
-        <v>14.89399169880292</v>
+        <v>10.27686010020012</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72220862845707</v>
+        <v>12.08278268531779</v>
       </c>
       <c r="C7">
-        <v>11.67464449278235</v>
+        <v>5.704713936715397</v>
       </c>
       <c r="D7">
-        <v>3.346313827335377</v>
+        <v>4.249961662608412</v>
       </c>
       <c r="E7">
-        <v>6.475604264933795</v>
+        <v>6.206932213253768</v>
       </c>
       <c r="F7">
-        <v>59.38980449287447</v>
+        <v>61.57884002066626</v>
       </c>
       <c r="G7">
-        <v>2.130764841574671</v>
+        <v>2.17356297778394</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.101224896952589</v>
+        <v>7.245221617829903</v>
       </c>
       <c r="K7">
-        <v>15.20266389332059</v>
+        <v>10.42539655970356</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.47065575836612</v>
+        <v>13.01469333322174</v>
       </c>
       <c r="C8">
-        <v>12.9924343913614</v>
+        <v>6.364148280035831</v>
       </c>
       <c r="D8">
-        <v>3.59865612982101</v>
+        <v>4.540600458277614</v>
       </c>
       <c r="E8">
-        <v>6.679900500863199</v>
+        <v>6.414601325905391</v>
       </c>
       <c r="F8">
-        <v>63.74025651933925</v>
+        <v>65.6191352362694</v>
       </c>
       <c r="G8">
-        <v>2.112085454340539</v>
+        <v>2.158969224985109</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.315815608410942</v>
+        <v>7.447997515498404</v>
       </c>
       <c r="K8">
-        <v>16.85823146592108</v>
+        <v>11.08762173290976</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.9514971713105</v>
+        <v>14.88945681437618</v>
       </c>
       <c r="C9">
-        <v>15.40092061526533</v>
+        <v>7.569148597798385</v>
       </c>
       <c r="D9">
-        <v>4.078582761445332</v>
+        <v>5.085214073819281</v>
       </c>
       <c r="E9">
-        <v>7.141440089623615</v>
+        <v>6.884568097821416</v>
       </c>
       <c r="F9">
-        <v>72.00853095417779</v>
+        <v>73.20255348194797</v>
       </c>
       <c r="G9">
-        <v>2.076179848103212</v>
+        <v>2.131293833075396</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.770754694135369</v>
+        <v>7.869311553163566</v>
       </c>
       <c r="K9">
-        <v>19.924267173063</v>
+        <v>12.75092239084652</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.36669282491362</v>
+        <v>16.41101180059465</v>
       </c>
       <c r="C10">
-        <v>17.08129983719989</v>
+        <v>8.407107085461089</v>
       </c>
       <c r="D10">
-        <v>4.426948261778878</v>
+        <v>5.473541264001997</v>
       </c>
       <c r="E10">
-        <v>7.521030382766004</v>
+        <v>7.268804680725008</v>
       </c>
       <c r="F10">
-        <v>77.94353154803134</v>
+        <v>78.56147642433146</v>
       </c>
       <c r="G10">
-        <v>2.049767465801637</v>
+        <v>2.111291600302077</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.128818237507481</v>
+        <v>8.193918866795135</v>
       </c>
       <c r="K10">
-        <v>22.04514369367545</v>
+        <v>14.07973222231727</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.44076759336373</v>
+        <v>17.08283452927921</v>
       </c>
       <c r="C11">
-        <v>17.83166982274965</v>
+        <v>8.779868104490246</v>
       </c>
       <c r="D11">
-        <v>4.585929988085573</v>
+        <v>5.648633617919311</v>
       </c>
       <c r="E11">
-        <v>7.703618281809639</v>
+        <v>7.538804903781624</v>
       </c>
       <c r="F11">
-        <v>80.62364902878342</v>
+        <v>80.95542695913311</v>
       </c>
       <c r="G11">
-        <v>2.037613635374774</v>
+        <v>2.10220050329212</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.297865577897268</v>
+        <v>8.34514447903492</v>
       </c>
       <c r="K11">
-        <v>22.9874451344077</v>
+        <v>14.66538280233375</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.84461780437661</v>
+        <v>17.33454147259831</v>
       </c>
       <c r="C12">
-        <v>18.11435338340813</v>
+        <v>8.919996567933111</v>
       </c>
       <c r="D12">
-        <v>4.646356106168236</v>
+        <v>5.714811331546561</v>
       </c>
       <c r="E12">
-        <v>7.774315405092763</v>
+        <v>7.655179126339795</v>
       </c>
       <c r="F12">
-        <v>81.63703240237545</v>
+        <v>81.85605422421925</v>
       </c>
       <c r="G12">
-        <v>2.03297783642608</v>
+        <v>2.098752935473148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.362878339800085</v>
+        <v>8.402957302169231</v>
       </c>
       <c r="K12">
-        <v>23.34166432764189</v>
+        <v>14.88468614609737</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.75775739431514</v>
+        <v>17.28044777051775</v>
       </c>
       <c r="C13">
-        <v>18.05352750030122</v>
+        <v>8.88985985216237</v>
       </c>
       <c r="D13">
-        <v>4.633329595415581</v>
+        <v>5.700562644209998</v>
       </c>
       <c r="E13">
-        <v>7.759017845379567</v>
+        <v>7.630163053634416</v>
       </c>
       <c r="F13">
-        <v>81.4188241197534</v>
+        <v>81.66234257573471</v>
       </c>
       <c r="G13">
-        <v>2.0339779674814</v>
+        <v>2.099495758704487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.348830153239749</v>
+        <v>8.390481258353006</v>
       </c>
       <c r="K13">
-        <v>23.26548166060213</v>
+        <v>14.83756092959192</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.47404598921407</v>
+        <v>17.10359521932087</v>
       </c>
       <c r="C14">
-        <v>17.85495214386809</v>
+        <v>8.791415995451452</v>
       </c>
       <c r="D14">
-        <v>4.590895833311781</v>
+        <v>5.654080003489069</v>
       </c>
       <c r="E14">
-        <v>7.709402522155501</v>
+        <v>7.548400566396535</v>
       </c>
       <c r="F14">
-        <v>80.70704205456964</v>
+        <v>81.02963761874277</v>
       </c>
       <c r="G14">
-        <v>2.037233001498984</v>
+        <v>2.101917007541391</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.303193455664132</v>
+        <v>8.349889567894289</v>
       </c>
       <c r="K14">
-        <v>23.01663524141744</v>
+        <v>14.68347303223249</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.29991171725788</v>
+        <v>16.99492409178506</v>
       </c>
       <c r="C15">
-        <v>17.73314661073898</v>
+        <v>8.730988402333537</v>
       </c>
       <c r="D15">
-        <v>4.5649379952013</v>
+        <v>5.625594824761103</v>
       </c>
       <c r="E15">
-        <v>7.679218759473619</v>
+        <v>7.498177952227279</v>
       </c>
       <c r="F15">
-        <v>80.27090355913339</v>
+        <v>80.64133284081696</v>
       </c>
       <c r="G15">
-        <v>2.039222008861461</v>
+        <v>2.103399249020509</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.275373522012112</v>
+        <v>8.325098466434754</v>
       </c>
       <c r="K15">
-        <v>22.86389040049287</v>
+        <v>14.5887757555049</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.29605758712388</v>
+        <v>16.36671573976765</v>
       </c>
       <c r="C16">
-        <v>17.03202361835721</v>
+        <v>8.382591697421578</v>
       </c>
       <c r="D16">
-        <v>4.416580786464061</v>
+        <v>5.462075239263726</v>
       </c>
       <c r="E16">
-        <v>7.509307484273759</v>
+        <v>7.256987428983716</v>
       </c>
       <c r="F16">
-        <v>77.76808575404721</v>
+        <v>78.40417339576416</v>
       </c>
       <c r="G16">
-        <v>2.050557863155599</v>
+        <v>2.111885382473725</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.117903483213178</v>
+        <v>8.184110277056588</v>
       </c>
       <c r="K16">
-        <v>21.98316009785793</v>
+        <v>14.04109923368937</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.67434954472526</v>
+        <v>15.97626876174338</v>
       </c>
       <c r="C17">
-        <v>16.59867030478413</v>
+        <v>8.166824098674882</v>
       </c>
       <c r="D17">
-        <v>4.325795927981855</v>
+        <v>5.361427030090604</v>
       </c>
       <c r="E17">
-        <v>7.407691341765436</v>
+        <v>7.154410525863283</v>
       </c>
       <c r="F17">
-        <v>76.22844323905188</v>
+        <v>77.02074148721499</v>
       </c>
       <c r="G17">
-        <v>2.057467717341874</v>
+        <v>2.1170893129101</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.022949427187188</v>
+        <v>8.098551642991508</v>
       </c>
       <c r="K17">
-        <v>21.43750668965597</v>
+        <v>13.70045326679475</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.31439610509502</v>
+        <v>15.749763349716</v>
       </c>
       <c r="C18">
-        <v>16.34805596702286</v>
+        <v>8.041914033752365</v>
       </c>
       <c r="D18">
-        <v>4.273616103552391</v>
+        <v>5.303383306487229</v>
       </c>
       <c r="E18">
-        <v>7.350167453023519</v>
+        <v>7.09623479116782</v>
       </c>
       <c r="F18">
-        <v>75.340921248786</v>
+        <v>76.22086596992609</v>
       </c>
       <c r="G18">
-        <v>2.061429966809479</v>
+        <v>2.12008364382385</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.968906091300859</v>
+        <v>8.049672923890828</v>
       </c>
       <c r="K18">
-        <v>21.12150006586274</v>
+        <v>13.50273407407552</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.19209823661223</v>
+        <v>15.67273469792321</v>
       </c>
       <c r="C19">
-        <v>16.26295342601428</v>
+        <v>7.99947802900562</v>
       </c>
       <c r="D19">
-        <v>4.255951228714724</v>
+        <v>5.283701579295328</v>
       </c>
       <c r="E19">
-        <v>7.33084604105805</v>
+        <v>7.076677918026333</v>
       </c>
       <c r="F19">
-        <v>75.04005124567435</v>
+        <v>75.94931793974115</v>
       </c>
       <c r="G19">
-        <v>2.062769805098982</v>
+        <v>2.121097846186543</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.950703214563023</v>
+        <v>8.033179635241741</v>
       </c>
       <c r="K19">
-        <v>21.01411733620033</v>
+        <v>13.43547583369652</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.74077169004387</v>
+        <v>16.01803081463703</v>
       </c>
       <c r="C20">
-        <v>16.64493870492271</v>
+        <v>8.189875132739008</v>
       </c>
       <c r="D20">
-        <v>4.335455290304951</v>
+        <v>5.372156430642293</v>
       </c>
       <c r="E20">
-        <v>7.418412205778968</v>
+        <v>7.165244491046037</v>
       </c>
       <c r="F20">
-        <v>76.39253544597784</v>
+        <v>77.16843865015151</v>
       </c>
       <c r="G20">
-        <v>2.056733494938211</v>
+        <v>2.11653526639023</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.032997562905154</v>
+        <v>8.107624893833002</v>
       </c>
       <c r="K20">
-        <v>21.49581195882036</v>
+        <v>13.73689911062742</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.55745105233976</v>
+        <v>17.15561228678484</v>
       </c>
       <c r="C21">
-        <v>17.91331330788742</v>
+        <v>8.820357621185854</v>
       </c>
       <c r="D21">
-        <v>4.60335224386622</v>
+        <v>5.667735638659112</v>
       </c>
       <c r="E21">
-        <v>7.723932304286634</v>
+        <v>7.572445254775846</v>
       </c>
       <c r="F21">
-        <v>80.91613829170483</v>
+        <v>81.21563471477614</v>
       </c>
       <c r="G21">
-        <v>2.036277946236597</v>
+        <v>2.101206016004501</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.316569917103696</v>
+        <v>8.361797145987211</v>
       </c>
       <c r="K21">
-        <v>23.08979269648328</v>
+        <v>14.72879734361143</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.72839414838588</v>
+        <v>17.8835011338052</v>
       </c>
       <c r="C22">
-        <v>18.73407609397887</v>
+        <v>9.226530821413748</v>
       </c>
       <c r="D22">
-        <v>4.779833837863821</v>
+        <v>5.860237006666345</v>
       </c>
       <c r="E22">
-        <v>7.932763248570715</v>
+        <v>7.9092553903559</v>
       </c>
       <c r="F22">
-        <v>83.86465506093157</v>
+        <v>83.82658385551949</v>
       </c>
       <c r="G22">
-        <v>2.022706041853781</v>
+        <v>2.091155009044345</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.507795893210766</v>
+        <v>8.531127223042228</v>
       </c>
       <c r="K22">
-        <v>24.11672514713753</v>
+        <v>15.36280068878902</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.10467946784366</v>
+        <v>17.49635248610005</v>
       </c>
       <c r="C23">
-        <v>18.29655410783108</v>
+        <v>9.010217699545587</v>
       </c>
       <c r="D23">
-        <v>4.685456180883604</v>
+        <v>5.757520603780442</v>
       </c>
       <c r="E23">
-        <v>7.82041436960964</v>
+        <v>7.730031233421247</v>
       </c>
       <c r="F23">
-        <v>82.2911496051012</v>
+        <v>82.43601386055042</v>
       </c>
       <c r="G23">
-        <v>2.029973374396856</v>
+        <v>2.096524650179521</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.405149795608397</v>
+        <v>8.440443574771393</v>
       </c>
       <c r="K23">
-        <v>23.56974782724632</v>
+        <v>15.02563792867141</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.71075015127651</v>
+        <v>15.9991565370961</v>
       </c>
       <c r="C24">
-        <v>16.6240253915784</v>
+        <v>8.179456459922212</v>
       </c>
       <c r="D24">
-        <v>4.33108826102003</v>
+        <v>5.367306235673763</v>
       </c>
       <c r="E24">
-        <v>7.41356251967995</v>
+        <v>7.160343975702006</v>
       </c>
       <c r="F24">
-        <v>76.31835680686588</v>
+        <v>77.10167887557395</v>
       </c>
       <c r="G24">
-        <v>2.057065468052067</v>
+        <v>2.116785742516094</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.028453104855467</v>
+        <v>8.103521913766469</v>
       </c>
       <c r="K24">
-        <v>21.46945936585128</v>
+        <v>13.72042780949423</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.03657578819611</v>
+        <v>14.32147830123879</v>
       </c>
       <c r="C25">
-        <v>14.76654011965174</v>
+        <v>7.252020759419504</v>
       </c>
       <c r="D25">
-        <v>3.949904086625704</v>
+        <v>4.940251792041205</v>
       </c>
       <c r="E25">
-        <v>7.009765720405463</v>
+        <v>6.750660582100217</v>
       </c>
       <c r="F25">
-        <v>69.79876600725353</v>
+        <v>71.18856475173891</v>
       </c>
       <c r="G25">
-        <v>2.085860217889946</v>
+        <v>2.13870326440304</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.643765337367864</v>
+        <v>7.752755980062935</v>
       </c>
       <c r="K25">
-        <v>19.11973811546733</v>
+        <v>12.24346815476961</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.2645465054691</v>
+        <v>13.22684643485165</v>
       </c>
       <c r="C2">
-        <v>6.53666585142241</v>
+        <v>8.687789840246033</v>
       </c>
       <c r="D2">
-        <v>4.617519380681039</v>
+        <v>6.630216913265724</v>
       </c>
       <c r="E2">
-        <v>6.475096896635329</v>
+        <v>11.03145072135692</v>
       </c>
       <c r="F2">
-        <v>66.69143315664583</v>
+        <v>28.96675406130944</v>
       </c>
       <c r="G2">
-        <v>2.155086945019933</v>
+        <v>35.34793214943998</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.307569495379089</v>
       </c>
       <c r="J2">
-        <v>7.504529223127647</v>
+        <v>11.94946259351311</v>
       </c>
       <c r="K2">
-        <v>11.26836243608303</v>
+        <v>18.10049785081451</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.987175827588517</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.1469187898125</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +465,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.53679098909356</v>
+        <v>12.36310915610945</v>
       </c>
       <c r="C3">
-        <v>6.029483912040448</v>
+        <v>8.110021528589396</v>
       </c>
       <c r="D3">
-        <v>4.392425648888571</v>
+        <v>6.254555810531411</v>
       </c>
       <c r="E3">
-        <v>6.30439219132932</v>
+        <v>10.43504742338932</v>
       </c>
       <c r="F3">
-        <v>63.55604530536925</v>
+        <v>28.30454224118227</v>
       </c>
       <c r="G3">
-        <v>2.166424119420016</v>
+        <v>34.55414708629279</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.580980864465976</v>
       </c>
       <c r="J3">
-        <v>7.342358555509561</v>
+        <v>11.89583887797225</v>
       </c>
       <c r="K3">
-        <v>10.74552200111549</v>
+        <v>18.06300770691055</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.745821242514236</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.39597188327031</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +515,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0852735884518</v>
+        <v>11.80182145595273</v>
       </c>
       <c r="C4">
-        <v>5.706516786262716</v>
+        <v>7.734605009775406</v>
       </c>
       <c r="D4">
-        <v>4.250748854875678</v>
+        <v>6.012543460074364</v>
       </c>
       <c r="E4">
-        <v>6.20744639558542</v>
+        <v>10.05159280421329</v>
       </c>
       <c r="F4">
-        <v>61.58974035426383</v>
+        <v>27.90366449515715</v>
       </c>
       <c r="G4">
-        <v>2.173523606624553</v>
+        <v>34.08025827303082</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.75455795983891</v>
       </c>
       <c r="J4">
-        <v>7.245745561053305</v>
+        <v>11.86803198325861</v>
       </c>
       <c r="K4">
-        <v>10.42713882825646</v>
+        <v>18.04938109934901</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.592736713667005</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.90937099858274</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +565,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.90030761799205</v>
+        <v>11.56528223093948</v>
       </c>
       <c r="C5">
-        <v>5.57194374975389</v>
+        <v>7.576397875318487</v>
       </c>
       <c r="D5">
-        <v>4.192101569915279</v>
+        <v>5.911111500577855</v>
       </c>
       <c r="E5">
-        <v>6.169910998731043</v>
+        <v>9.891059575616195</v>
       </c>
       <c r="F5">
-        <v>60.77858126673439</v>
+        <v>27.74187124546322</v>
       </c>
       <c r="G5">
-        <v>2.176454611199561</v>
+        <v>33.89064981377226</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.826753505418805</v>
       </c>
       <c r="J5">
-        <v>7.207119145097771</v>
+        <v>11.85795276513924</v>
       </c>
       <c r="K5">
-        <v>10.29821357959291</v>
+        <v>18.04610788777242</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.529161409334453</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.70467524285255</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +615,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86954267647665</v>
+        <v>11.5255326714809</v>
       </c>
       <c r="C6">
-        <v>5.549417900526544</v>
+        <v>7.549811610557711</v>
       </c>
       <c r="D6">
-        <v>4.182307024091241</v>
+        <v>5.89410065727622</v>
       </c>
       <c r="E6">
-        <v>6.163797004102912</v>
+        <v>9.864147463011678</v>
       </c>
       <c r="F6">
-        <v>60.64330934590774</v>
+        <v>27.71510403850615</v>
       </c>
       <c r="G6">
-        <v>2.176943677508483</v>
+        <v>33.85938026111926</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.838830582735773</v>
       </c>
       <c r="J6">
-        <v>7.200750223862487</v>
+        <v>11.85635372754301</v>
       </c>
       <c r="K6">
-        <v>10.27686010020012</v>
+        <v>18.04569966241397</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.518533989023691</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.67029967334647</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +665,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.08278268531779</v>
+        <v>11.79866306013354</v>
       </c>
       <c r="C7">
-        <v>5.704713936715397</v>
+        <v>7.732492548477826</v>
       </c>
       <c r="D7">
-        <v>4.249961662608412</v>
+        <v>6.011186821661667</v>
       </c>
       <c r="E7">
-        <v>6.206932213253768</v>
+        <v>10.04944499244641</v>
       </c>
       <c r="F7">
-        <v>61.57884002066626</v>
+        <v>27.90147597738353</v>
       </c>
       <c r="G7">
-        <v>2.17356297778394</v>
+        <v>34.077686814065</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.755525660737508</v>
       </c>
       <c r="J7">
-        <v>7.245221617829903</v>
+        <v>11.86789102715415</v>
       </c>
       <c r="K7">
-        <v>10.42539655970356</v>
+        <v>18.04932783358666</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.591884087754909</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.90663629335494</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +715,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.01469333322174</v>
+        <v>12.9354353021489</v>
       </c>
       <c r="C8">
-        <v>6.364148280035831</v>
+        <v>8.492848077329564</v>
       </c>
       <c r="D8">
-        <v>4.540600458277614</v>
+        <v>6.503069155381605</v>
       </c>
       <c r="E8">
-        <v>6.414601325905391</v>
+        <v>10.82942856839236</v>
       </c>
       <c r="F8">
-        <v>65.6191352362694</v>
+        <v>28.737312452219</v>
       </c>
       <c r="G8">
-        <v>2.158969224985109</v>
+        <v>35.07150171318016</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.400675515864563</v>
       </c>
       <c r="J8">
-        <v>7.447997515498404</v>
+        <v>11.92989013947816</v>
       </c>
       <c r="K8">
-        <v>11.08762173290976</v>
+        <v>18.08557249410831</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.904993228693304</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.89329310958389</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +765,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88945681437618</v>
+        <v>14.92056150079393</v>
       </c>
       <c r="C9">
-        <v>7.569148597798385</v>
+        <v>9.821212337071131</v>
       </c>
       <c r="D9">
-        <v>5.085214073819281</v>
+        <v>7.376143297865588</v>
       </c>
       <c r="E9">
-        <v>6.884568097821416</v>
+        <v>12.21990507871087</v>
       </c>
       <c r="F9">
-        <v>73.20255348194797</v>
+        <v>30.41628881627445</v>
       </c>
       <c r="G9">
-        <v>2.131293833075396</v>
+        <v>37.12245467777556</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.748732570551971</v>
       </c>
       <c r="J9">
-        <v>7.869311553163566</v>
+        <v>12.09360935577784</v>
       </c>
       <c r="K9">
-        <v>12.75092239084652</v>
+        <v>18.23484146538938</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.478788849784338</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.62562935437089</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +815,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.41101180059465</v>
+        <v>16.23565872402114</v>
       </c>
       <c r="C10">
-        <v>8.407107085461089</v>
+        <v>10.66296623032394</v>
       </c>
       <c r="D10">
-        <v>5.473541264001997</v>
+        <v>7.887766415585147</v>
       </c>
       <c r="E10">
-        <v>7.268804680725008</v>
+        <v>12.93158607598337</v>
       </c>
       <c r="F10">
-        <v>78.56147642433146</v>
+        <v>31.39785987563642</v>
       </c>
       <c r="G10">
-        <v>2.111291600302077</v>
+        <v>38.32507791515147</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.807531373147743</v>
       </c>
       <c r="J10">
-        <v>8.193918866795135</v>
+        <v>12.17100958947866</v>
       </c>
       <c r="K10">
-        <v>14.07973222231727</v>
+        <v>18.26930377841474</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.75932233586721</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.76503078391253</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +865,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.08283452927921</v>
+        <v>16.83059163044827</v>
       </c>
       <c r="C11">
-        <v>8.779868104490246</v>
+        <v>10.71106697456707</v>
       </c>
       <c r="D11">
-        <v>5.648633617919311</v>
+        <v>7.485548714237082</v>
       </c>
       <c r="E11">
-        <v>7.538804903781624</v>
+        <v>11.3523432519313</v>
       </c>
       <c r="F11">
-        <v>80.95542695913311</v>
+        <v>29.52810129402255</v>
       </c>
       <c r="G11">
-        <v>2.10220050329212</v>
+        <v>35.78284942088882</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.759810781963479</v>
       </c>
       <c r="J11">
-        <v>8.34514447903492</v>
+        <v>11.60458378452993</v>
       </c>
       <c r="K11">
-        <v>14.66538280233375</v>
+        <v>17.20091584221446</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.943152902196941</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.16868255350311</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +915,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.33454147259831</v>
+        <v>17.06779416302911</v>
       </c>
       <c r="C12">
-        <v>8.919996567933111</v>
+        <v>10.57930094845607</v>
       </c>
       <c r="D12">
-        <v>5.714811331546561</v>
+        <v>7.036484521881636</v>
       </c>
       <c r="E12">
-        <v>7.655179126339795</v>
+        <v>9.907954376168689</v>
       </c>
       <c r="F12">
-        <v>81.85605422421925</v>
+        <v>27.72616284353852</v>
       </c>
       <c r="G12">
-        <v>2.098752935473148</v>
+        <v>33.35201154920819</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.061237692661313</v>
       </c>
       <c r="J12">
-        <v>8.402957302169231</v>
+        <v>11.10991424957922</v>
       </c>
       <c r="K12">
-        <v>14.88468614609737</v>
+        <v>16.2992916975265</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.277885835842448</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.27909709686832</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +965,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28044777051775</v>
+        <v>17.05208813807769</v>
       </c>
       <c r="C13">
-        <v>8.88985985216237</v>
+        <v>10.2971997442268</v>
       </c>
       <c r="D13">
-        <v>5.700562644209998</v>
+        <v>6.511440073787258</v>
       </c>
       <c r="E13">
-        <v>7.630163053634416</v>
+        <v>8.468445619504955</v>
       </c>
       <c r="F13">
-        <v>81.66234257573471</v>
+        <v>25.8446861024597</v>
       </c>
       <c r="G13">
-        <v>2.099495758704487</v>
+        <v>30.82234471699827</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.472067031045566</v>
       </c>
       <c r="J13">
-        <v>8.390481258353006</v>
+        <v>10.64036684151554</v>
       </c>
       <c r="K13">
-        <v>14.83756092959192</v>
+        <v>15.47467521014801</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.708297844153766</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.17421931899858</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1015,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.10359521932087</v>
+        <v>16.92701548407709</v>
       </c>
       <c r="C14">
-        <v>8.791415995451452</v>
+        <v>10.02796355432517</v>
       </c>
       <c r="D14">
-        <v>5.654080003489069</v>
+        <v>6.103316963362142</v>
       </c>
       <c r="E14">
-        <v>7.548400566396535</v>
+        <v>7.484299551842676</v>
       </c>
       <c r="F14">
-        <v>81.02963761874277</v>
+        <v>24.49166545256794</v>
       </c>
       <c r="G14">
-        <v>2.101917007541391</v>
+        <v>29.00400220100306</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.505476383756029</v>
       </c>
       <c r="J14">
-        <v>8.349889567894289</v>
+        <v>10.32705512211155</v>
       </c>
       <c r="K14">
-        <v>14.68347303223249</v>
+        <v>14.9433674378175</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.387054847732034</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.00246133754686</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1065,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.99492409178506</v>
+        <v>16.84170965167011</v>
       </c>
       <c r="C15">
-        <v>8.730988402333537</v>
+        <v>9.929033027621461</v>
       </c>
       <c r="D15">
-        <v>5.625594824761103</v>
+        <v>5.986615891295044</v>
       </c>
       <c r="E15">
-        <v>7.498177952227279</v>
+        <v>7.241060221197522</v>
       </c>
       <c r="F15">
-        <v>80.64133284081696</v>
+        <v>24.14795798280868</v>
       </c>
       <c r="G15">
-        <v>2.103399249020509</v>
+        <v>28.54467015063683</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.745830168014533</v>
       </c>
       <c r="J15">
-        <v>8.325098466434754</v>
+        <v>10.2568875593587</v>
       </c>
       <c r="K15">
-        <v>14.5887757555049</v>
+        <v>14.83116341049955</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.318543537356199</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.91365213486405</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1115,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.36671573976765</v>
+        <v>16.30910307586523</v>
       </c>
       <c r="C16">
-        <v>8.382591697421578</v>
+        <v>9.618996884249931</v>
       </c>
       <c r="D16">
-        <v>5.462075239263726</v>
+        <v>5.843369522077169</v>
       </c>
       <c r="E16">
-        <v>7.256987428983716</v>
+        <v>7.140807177809094</v>
       </c>
       <c r="F16">
-        <v>78.40417339576416</v>
+        <v>24.05784866408304</v>
       </c>
       <c r="G16">
-        <v>2.111885382473725</v>
+        <v>28.45983383965186</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.551656313455687</v>
       </c>
       <c r="J16">
-        <v>8.184110277056588</v>
+        <v>10.31754022725698</v>
       </c>
       <c r="K16">
-        <v>14.04109923368937</v>
+        <v>14.98569133785921</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.293244279062978</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.46191021810363</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1165,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.97626876174338</v>
+        <v>15.96068723190072</v>
       </c>
       <c r="C17">
-        <v>8.166824098674882</v>
+        <v>9.5268904333234</v>
       </c>
       <c r="D17">
-        <v>5.361427030090604</v>
+        <v>5.958915143137501</v>
       </c>
       <c r="E17">
-        <v>7.154410525863283</v>
+        <v>7.588352159596727</v>
       </c>
       <c r="F17">
-        <v>77.02074148721499</v>
+        <v>24.71775708971772</v>
       </c>
       <c r="G17">
-        <v>2.1170893129101</v>
+        <v>29.37854305661655</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.825207649759827</v>
       </c>
       <c r="J17">
-        <v>8.098551642991508</v>
+        <v>10.52946297030256</v>
       </c>
       <c r="K17">
-        <v>13.70045326679475</v>
+        <v>15.38136000398491</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.429602649730198</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.20350198868831</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1215,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.749763349716</v>
+        <v>15.7396320172241</v>
       </c>
       <c r="C18">
-        <v>8.041914033752365</v>
+        <v>9.617462383603877</v>
       </c>
       <c r="D18">
-        <v>5.303383306487229</v>
+        <v>6.313463386864142</v>
       </c>
       <c r="E18">
-        <v>7.09623479116782</v>
+        <v>8.636856062657973</v>
       </c>
       <c r="F18">
-        <v>76.22086596992609</v>
+        <v>26.10467240266125</v>
       </c>
       <c r="G18">
-        <v>2.12008364382385</v>
+        <v>31.26676820699828</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.578789429184663</v>
       </c>
       <c r="J18">
-        <v>8.049672923890828</v>
+        <v>10.89993840363396</v>
       </c>
       <c r="K18">
-        <v>13.50273407407552</v>
+        <v>16.04414136596115</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.806039262171723</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.08947885112274</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1265,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67273469792321</v>
+        <v>15.64248808225652</v>
       </c>
       <c r="C19">
-        <v>7.99947802900562</v>
+        <v>9.847801726127017</v>
       </c>
       <c r="D19">
-        <v>5.283701579295328</v>
+        <v>6.830093865665397</v>
       </c>
       <c r="E19">
-        <v>7.076677918026333</v>
+        <v>10.15073781938393</v>
       </c>
       <c r="F19">
-        <v>75.94931793974115</v>
+        <v>27.98482488197173</v>
       </c>
       <c r="G19">
-        <v>2.121097846186543</v>
+        <v>33.80255733769504</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.089364575383175</v>
       </c>
       <c r="J19">
-        <v>8.033179635241741</v>
+        <v>11.38020317729675</v>
       </c>
       <c r="K19">
-        <v>13.43547583369652</v>
+        <v>16.89955787312061</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.445619312635833</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.10349533593595</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1315,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.01803081463703</v>
+        <v>15.90030598346658</v>
       </c>
       <c r="C20">
-        <v>8.189875132739008</v>
+        <v>10.44639474361166</v>
       </c>
       <c r="D20">
-        <v>5.372156430642293</v>
+        <v>7.753370943983913</v>
       </c>
       <c r="E20">
-        <v>7.165244491046037</v>
+        <v>12.73860501016436</v>
       </c>
       <c r="F20">
-        <v>77.16843865015151</v>
+        <v>31.12627392294848</v>
       </c>
       <c r="G20">
-        <v>2.11653526639023</v>
+        <v>37.98834232118528</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.693907233760248</v>
       </c>
       <c r="J20">
-        <v>8.107624893833002</v>
+        <v>12.14560148056171</v>
       </c>
       <c r="K20">
-        <v>13.73689911062742</v>
+        <v>18.25085236164606</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.681660127317556</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.47353387313587</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1365,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.15561228678484</v>
+        <v>16.859021084891</v>
       </c>
       <c r="C21">
-        <v>8.820357621185854</v>
+        <v>11.1196791064791</v>
       </c>
       <c r="D21">
-        <v>5.667735638659112</v>
+        <v>8.241279825213555</v>
       </c>
       <c r="E21">
-        <v>7.572445254775846</v>
+        <v>13.60512710109485</v>
       </c>
       <c r="F21">
-        <v>81.21563471477614</v>
+        <v>32.30129968370571</v>
       </c>
       <c r="G21">
-        <v>2.101206016004501</v>
+        <v>39.48579517331189</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.038272441129536</v>
       </c>
       <c r="J21">
-        <v>8.361797145987211</v>
+        <v>12.32374467749104</v>
       </c>
       <c r="K21">
-        <v>14.72879734361143</v>
+        <v>18.49344604685398</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.067251783898598</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.32577191849033</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1415,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.8835011338052</v>
+        <v>17.46136861211189</v>
       </c>
       <c r="C22">
-        <v>9.226530821413748</v>
+        <v>11.52352260199321</v>
       </c>
       <c r="D22">
-        <v>5.860237006666345</v>
+        <v>8.512031281198949</v>
       </c>
       <c r="E22">
-        <v>7.9092553903559</v>
+        <v>14.04012067804314</v>
       </c>
       <c r="F22">
-        <v>83.82658385551949</v>
+        <v>32.93239816696708</v>
       </c>
       <c r="G22">
-        <v>2.091155009044345</v>
+        <v>40.28802328758555</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.25210004033846</v>
       </c>
       <c r="J22">
-        <v>8.531127223042228</v>
+        <v>12.40972280527245</v>
       </c>
       <c r="K22">
-        <v>15.36280068878902</v>
+        <v>18.59772699489496</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.255029076725258</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.85542232792707</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1465,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.49635248610005</v>
+        <v>17.14223278745217</v>
       </c>
       <c r="C23">
-        <v>9.010217699545587</v>
+        <v>11.30953408256938</v>
       </c>
       <c r="D23">
-        <v>5.757520603780442</v>
+        <v>8.368482013466329</v>
       </c>
       <c r="E23">
-        <v>7.730031233421247</v>
+        <v>13.80940515727567</v>
       </c>
       <c r="F23">
-        <v>82.43601386055042</v>
+        <v>32.59546101699494</v>
       </c>
       <c r="G23">
-        <v>2.096524650179521</v>
+        <v>39.85911039156186</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.138310278555187</v>
       </c>
       <c r="J23">
-        <v>8.440443574771393</v>
+        <v>12.36330753634243</v>
       </c>
       <c r="K23">
-        <v>15.02563792867141</v>
+        <v>18.54103142444478</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.155268890321123</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.57473061878277</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1515,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.9991565370961</v>
+        <v>15.88168189674764</v>
       </c>
       <c r="C24">
-        <v>8.179456459922212</v>
+        <v>10.46480967092174</v>
       </c>
       <c r="D24">
-        <v>5.367306235673763</v>
+        <v>7.803802409484287</v>
       </c>
       <c r="E24">
-        <v>7.160343975702006</v>
+        <v>12.90375127573745</v>
       </c>
       <c r="F24">
-        <v>77.10167887557395</v>
+        <v>31.32223620047294</v>
       </c>
       <c r="G24">
-        <v>2.116785742516094</v>
+        <v>38.2516067584512</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.699783995936463</v>
       </c>
       <c r="J24">
-        <v>8.103521913766469</v>
+        <v>12.19889711580227</v>
       </c>
       <c r="K24">
-        <v>13.72042780949423</v>
+        <v>18.34862568800843</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.767394354463643</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.46769310644007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1565,60 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.32147830123879</v>
+        <v>14.40943274040414</v>
       </c>
       <c r="C25">
-        <v>7.252020759419504</v>
+        <v>9.479081937884038</v>
       </c>
       <c r="D25">
-        <v>4.940251792041205</v>
+        <v>7.1499061888919</v>
       </c>
       <c r="E25">
-        <v>6.750660582100217</v>
+        <v>11.8588659068757</v>
       </c>
       <c r="F25">
-        <v>71.18856475173891</v>
+        <v>29.95855135493898</v>
       </c>
       <c r="G25">
-        <v>2.13870326440304</v>
+        <v>36.5573782433367</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.920592924805978</v>
       </c>
       <c r="J25">
-        <v>7.752755980062935</v>
+        <v>12.04459253214057</v>
       </c>
       <c r="K25">
-        <v>12.24346815476961</v>
+        <v>18.18557025546687</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.328039898837662</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.17862735840301</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.22684643485165</v>
+        <v>13.18091661907493</v>
       </c>
       <c r="C2">
-        <v>8.687789840246033</v>
+        <v>9.444716041919298</v>
       </c>
       <c r="D2">
-        <v>6.630216913265724</v>
+        <v>7.03709801719308</v>
       </c>
       <c r="E2">
-        <v>11.03145072135692</v>
+        <v>11.26914060440503</v>
       </c>
       <c r="F2">
-        <v>28.96675406130944</v>
+        <v>27.39858445411977</v>
       </c>
       <c r="G2">
-        <v>35.34793214943998</v>
+        <v>32.27893910184402</v>
       </c>
       <c r="H2">
-        <v>2.307569495379089</v>
+        <v>2.211296781589852</v>
       </c>
       <c r="J2">
-        <v>11.94946259351311</v>
+        <v>11.54893408101335</v>
       </c>
       <c r="K2">
-        <v>18.10049785081451</v>
+        <v>16.67478089944334</v>
       </c>
       <c r="L2">
-        <v>6.987175827588517</v>
+        <v>13.71919940215207</v>
       </c>
       <c r="M2">
-        <v>12.1469187898125</v>
+        <v>11.00563317558588</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.995739596781236</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.33180971146961</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -471,49 +477,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.36310915610945</v>
+        <v>12.35782407542962</v>
       </c>
       <c r="C3">
-        <v>8.110021528589396</v>
+        <v>8.755090075824262</v>
       </c>
       <c r="D3">
-        <v>6.254555810531411</v>
+        <v>6.632040645075342</v>
       </c>
       <c r="E3">
-        <v>10.43504742338932</v>
+        <v>10.67296865246669</v>
       </c>
       <c r="F3">
-        <v>28.30454224118227</v>
+        <v>26.88061273331899</v>
       </c>
       <c r="G3">
-        <v>34.55414708629279</v>
+        <v>31.79370524894193</v>
       </c>
       <c r="H3">
-        <v>2.580980864465976</v>
+        <v>2.464209507636689</v>
       </c>
       <c r="J3">
-        <v>11.89583887797225</v>
+        <v>11.49265450623566</v>
       </c>
       <c r="K3">
-        <v>18.06300770691055</v>
+        <v>16.73207076735785</v>
       </c>
       <c r="L3">
-        <v>6.745821242514236</v>
+        <v>13.84089478719138</v>
       </c>
       <c r="M3">
-        <v>11.39597188327031</v>
+        <v>10.98159441625121</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.768524969660172</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.5696764371399</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -521,49 +533,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80182145595273</v>
+        <v>11.82318918777491</v>
       </c>
       <c r="C4">
-        <v>7.734605009775406</v>
+        <v>8.321174780912543</v>
       </c>
       <c r="D4">
-        <v>6.012543460074364</v>
+        <v>6.371547708856311</v>
       </c>
       <c r="E4">
-        <v>10.05159280421329</v>
+        <v>10.29012521745656</v>
       </c>
       <c r="F4">
-        <v>27.90366449515715</v>
+        <v>26.56782263685016</v>
       </c>
       <c r="G4">
-        <v>34.08025827303082</v>
+        <v>31.51372432447086</v>
       </c>
       <c r="H4">
-        <v>2.75455795983891</v>
+        <v>2.624927336680484</v>
       </c>
       <c r="J4">
-        <v>11.86803198325861</v>
+        <v>11.46017104051616</v>
       </c>
       <c r="K4">
-        <v>18.04938109934901</v>
+        <v>16.77416890684057</v>
       </c>
       <c r="L4">
-        <v>6.592736713667005</v>
+        <v>13.91756180503515</v>
       </c>
       <c r="M4">
-        <v>10.90937099858274</v>
+        <v>10.98987178656016</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.624530598716995</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.0757718716608</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -571,49 +589,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.56528223093948</v>
+        <v>11.5979665374632</v>
       </c>
       <c r="C5">
-        <v>7.576397875318487</v>
+        <v>8.141625079259851</v>
       </c>
       <c r="D5">
-        <v>5.911111500577855</v>
+        <v>6.262502143824814</v>
       </c>
       <c r="E5">
-        <v>9.891059575616195</v>
+        <v>10.12998119020756</v>
       </c>
       <c r="F5">
-        <v>27.74187124546322</v>
+        <v>26.44173416820019</v>
       </c>
       <c r="G5">
-        <v>33.89064981377226</v>
+        <v>31.4040566992273</v>
       </c>
       <c r="H5">
-        <v>2.826753505418805</v>
+        <v>2.691809383426628</v>
       </c>
       <c r="J5">
-        <v>11.85795276513924</v>
+        <v>11.44744198888228</v>
       </c>
       <c r="K5">
-        <v>18.04610788777242</v>
+        <v>16.79299169938454</v>
       </c>
       <c r="L5">
-        <v>6.529161409334453</v>
+        <v>13.94929905882957</v>
       </c>
       <c r="M5">
-        <v>10.70467524285255</v>
+        <v>10.99892004372458</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.564762363333668</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.86800557605319</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -621,49 +645,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.5255326714809</v>
+        <v>11.56012451173874</v>
       </c>
       <c r="C6">
-        <v>7.549811610557711</v>
+        <v>8.111478881828809</v>
       </c>
       <c r="D6">
-        <v>5.89410065727622</v>
+        <v>6.244222924451901</v>
       </c>
       <c r="E6">
-        <v>9.864147463011678</v>
+        <v>10.10314286418203</v>
       </c>
       <c r="F6">
-        <v>27.71510403850615</v>
+        <v>26.42088199429226</v>
       </c>
       <c r="G6">
-        <v>33.85938026111926</v>
+        <v>31.38611101525057</v>
       </c>
       <c r="H6">
-        <v>2.838830582735773</v>
+        <v>2.702999605286288</v>
       </c>
       <c r="J6">
-        <v>11.85635372754301</v>
+        <v>11.44535865552928</v>
       </c>
       <c r="K6">
-        <v>18.04569966241397</v>
+        <v>16.79621583328169</v>
       </c>
       <c r="L6">
-        <v>6.518533989023691</v>
+        <v>13.95459905690136</v>
       </c>
       <c r="M6">
-        <v>10.67029967334647</v>
+        <v>11.00076131299356</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.554773300742347</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.8331149456643</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -671,49 +701,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.79866306013354</v>
+        <v>11.82150974511988</v>
       </c>
       <c r="C7">
-        <v>7.732492548477826</v>
+        <v>8.309360404061012</v>
       </c>
       <c r="D7">
-        <v>6.011186821661667</v>
+        <v>6.377388383945842</v>
       </c>
       <c r="E7">
-        <v>10.04944499244641</v>
+        <v>10.29074953980001</v>
       </c>
       <c r="F7">
-        <v>27.90147597738353</v>
+        <v>26.53891461927579</v>
       </c>
       <c r="G7">
-        <v>34.077686814065</v>
+        <v>31.56861786125054</v>
       </c>
       <c r="H7">
-        <v>2.755525660737508</v>
+        <v>2.626561942921085</v>
       </c>
       <c r="J7">
-        <v>11.86789102715415</v>
+        <v>11.41316380649501</v>
       </c>
       <c r="K7">
-        <v>18.04932783358666</v>
+        <v>16.75983527886112</v>
       </c>
       <c r="L7">
-        <v>6.591884087754909</v>
+        <v>13.90538921807982</v>
       </c>
       <c r="M7">
-        <v>10.90663629335494</v>
+        <v>10.98049805777068</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.622712808028874</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.07094292391481</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -721,49 +757,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9354353021489</v>
+        <v>12.90729421600806</v>
       </c>
       <c r="C8">
-        <v>8.492848077329564</v>
+        <v>9.183485889607732</v>
       </c>
       <c r="D8">
-        <v>6.503069155381605</v>
+        <v>6.922591384936822</v>
       </c>
       <c r="E8">
-        <v>10.82942856839236</v>
+        <v>11.07580686871949</v>
       </c>
       <c r="F8">
-        <v>28.737312452219</v>
+        <v>27.13137619591076</v>
       </c>
       <c r="G8">
-        <v>35.07150171318016</v>
+        <v>32.29278794167065</v>
       </c>
       <c r="H8">
-        <v>2.400675515864563</v>
+        <v>2.299667830170629</v>
       </c>
       <c r="J8">
-        <v>11.92989013947816</v>
+        <v>11.37662709957818</v>
       </c>
       <c r="K8">
-        <v>18.08557249410831</v>
+        <v>16.64546042103055</v>
       </c>
       <c r="L8">
-        <v>6.904993228693304</v>
+        <v>13.7220182915579</v>
       </c>
       <c r="M8">
-        <v>11.89329310958389</v>
+        <v>10.95870982630379</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.91517274186565</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.06811844325239</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -771,49 +813,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.92056150079393</v>
+        <v>14.79989995384428</v>
       </c>
       <c r="C9">
-        <v>9.821212337071131</v>
+        <v>10.76339626358729</v>
       </c>
       <c r="D9">
-        <v>7.376143297865588</v>
+        <v>7.868947500459803</v>
       </c>
       <c r="E9">
-        <v>12.21990507871087</v>
+        <v>12.46883535076147</v>
       </c>
       <c r="F9">
-        <v>30.41628881627445</v>
+        <v>28.43267091575137</v>
       </c>
       <c r="G9">
-        <v>37.12245467777556</v>
+        <v>33.64949615984065</v>
       </c>
       <c r="H9">
-        <v>1.748732570551971</v>
+        <v>1.697930139352758</v>
       </c>
       <c r="J9">
-        <v>12.09360935577784</v>
+        <v>11.49089145130252</v>
       </c>
       <c r="K9">
-        <v>18.23484146538938</v>
+        <v>16.53257161460115</v>
       </c>
       <c r="L9">
-        <v>7.478788849784338</v>
+        <v>13.42357095932048</v>
       </c>
       <c r="M9">
-        <v>13.62562935437089</v>
+        <v>11.13741918339208</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.455399416201751</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.82456315357976</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -821,49 +869,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.23565872402114</v>
+        <v>16.06290431903086</v>
       </c>
       <c r="C10">
-        <v>10.66296623032394</v>
+        <v>11.71212884377743</v>
       </c>
       <c r="D10">
-        <v>7.887766415585147</v>
+        <v>8.457540701711366</v>
       </c>
       <c r="E10">
-        <v>12.93158607598337</v>
+        <v>13.19346807130258</v>
       </c>
       <c r="F10">
-        <v>31.39785987563642</v>
+        <v>29.03181412705641</v>
       </c>
       <c r="G10">
-        <v>38.32507791515147</v>
+        <v>34.73612964697033</v>
       </c>
       <c r="H10">
-        <v>1.807531373147743</v>
+        <v>1.819626656496182</v>
       </c>
       <c r="J10">
-        <v>12.17100958947866</v>
+        <v>11.2758550852027</v>
       </c>
       <c r="K10">
-        <v>18.26930377841474</v>
+        <v>16.31174622382307</v>
       </c>
       <c r="L10">
-        <v>7.75932233586721</v>
+        <v>13.08648670839642</v>
       </c>
       <c r="M10">
-        <v>14.76503078391253</v>
+        <v>11.24026100111436</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.709983822790612</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.96698847170856</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -871,49 +925,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.83059163044827</v>
+        <v>16.67666847884514</v>
       </c>
       <c r="C11">
-        <v>10.71106697456707</v>
+        <v>11.59735160141314</v>
       </c>
       <c r="D11">
-        <v>7.485548714237082</v>
+        <v>8.088315800251619</v>
       </c>
       <c r="E11">
-        <v>11.3523432519313</v>
+        <v>11.61600798882038</v>
       </c>
       <c r="F11">
-        <v>29.52810129402255</v>
+        <v>27.02887697705926</v>
       </c>
       <c r="G11">
-        <v>35.78284942088882</v>
+        <v>33.10654360307799</v>
       </c>
       <c r="H11">
-        <v>2.759810781963479</v>
+        <v>2.758944358734851</v>
       </c>
       <c r="J11">
-        <v>11.60458378452993</v>
+        <v>10.3203247808076</v>
       </c>
       <c r="K11">
-        <v>17.20091584221446</v>
+        <v>15.25919114651277</v>
       </c>
       <c r="L11">
-        <v>6.943152902196941</v>
+        <v>12.27395327918282</v>
       </c>
       <c r="M11">
-        <v>15.16868255350311</v>
+        <v>10.50613817027793</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.889187865210852</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.33511933673387</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -921,49 +981,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.06779416302911</v>
+        <v>16.9369561197268</v>
       </c>
       <c r="C12">
-        <v>10.57930094845607</v>
+        <v>11.32966644424682</v>
       </c>
       <c r="D12">
-        <v>7.036484521881636</v>
+        <v>7.62933001788099</v>
       </c>
       <c r="E12">
-        <v>9.907954376168689</v>
+        <v>10.15802607523815</v>
       </c>
       <c r="F12">
-        <v>27.72616284353852</v>
+        <v>25.29067592866787</v>
       </c>
       <c r="G12">
-        <v>33.35201154920819</v>
+        <v>31.27173786893128</v>
       </c>
       <c r="H12">
-        <v>4.061237692661313</v>
+        <v>4.059755776599592</v>
       </c>
       <c r="J12">
-        <v>11.10991424957922</v>
+        <v>9.75820462190276</v>
       </c>
       <c r="K12">
-        <v>16.2992916975265</v>
+        <v>14.48825763910427</v>
       </c>
       <c r="L12">
-        <v>6.277885835842448</v>
+        <v>11.72907114351053</v>
       </c>
       <c r="M12">
-        <v>15.27909709686832</v>
+        <v>9.899161564148553</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.229938887489372</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.41992943681422</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -971,49 +1037,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.05208813807769</v>
+        <v>16.94646121653942</v>
       </c>
       <c r="C13">
-        <v>10.2971997442268</v>
+        <v>10.93721638678814</v>
       </c>
       <c r="D13">
-        <v>6.511440073787258</v>
+        <v>7.046757601322848</v>
       </c>
       <c r="E13">
-        <v>8.468445619504955</v>
+        <v>8.687748061292435</v>
       </c>
       <c r="F13">
-        <v>25.8446861024597</v>
+        <v>23.68463652945465</v>
       </c>
       <c r="G13">
-        <v>30.82234471699827</v>
+        <v>29.00501475961165</v>
       </c>
       <c r="H13">
-        <v>5.472067031045566</v>
+        <v>5.470990909386771</v>
       </c>
       <c r="J13">
-        <v>10.64036684151554</v>
+        <v>9.498957459366233</v>
       </c>
       <c r="K13">
-        <v>15.47467521014801</v>
+        <v>13.91141614359181</v>
       </c>
       <c r="L13">
-        <v>5.708297844153766</v>
+        <v>11.35308715771186</v>
       </c>
       <c r="M13">
-        <v>15.17421931899858</v>
+        <v>9.384879363595614</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.676600048735696</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.2986136898032</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1021,49 +1093,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.92701548407709</v>
+        <v>16.84022902557276</v>
       </c>
       <c r="C14">
-        <v>10.02796355432517</v>
+        <v>10.59966675673154</v>
       </c>
       <c r="D14">
-        <v>6.103316963362142</v>
+        <v>6.577358287174476</v>
       </c>
       <c r="E14">
-        <v>7.484299551842676</v>
+        <v>7.67521966681779</v>
       </c>
       <c r="F14">
-        <v>24.49166545256794</v>
+        <v>22.61404088778816</v>
       </c>
       <c r="G14">
-        <v>29.00400220100306</v>
+        <v>27.2339390666451</v>
       </c>
       <c r="H14">
-        <v>6.505476383756029</v>
+        <v>6.502271077607713</v>
       </c>
       <c r="J14">
-        <v>10.32705512211155</v>
+        <v>9.429083249488885</v>
       </c>
       <c r="K14">
-        <v>14.9433674378175</v>
+        <v>13.59511278821781</v>
       </c>
       <c r="L14">
-        <v>5.387054847732034</v>
+        <v>11.15834710225773</v>
       </c>
       <c r="M14">
-        <v>15.00246133754686</v>
+        <v>9.073085209358265</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.37073690435253</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.1190035729009</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1071,49 +1149,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.84170965167011</v>
+        <v>16.76020185885706</v>
       </c>
       <c r="C15">
-        <v>9.929033027621461</v>
+        <v>10.4879494066636</v>
       </c>
       <c r="D15">
-        <v>5.986615891295044</v>
+        <v>6.436973909110816</v>
       </c>
       <c r="E15">
-        <v>7.241060221197522</v>
+        <v>7.423520664730654</v>
       </c>
       <c r="F15">
-        <v>24.14795798280868</v>
+        <v>22.3760588876665</v>
       </c>
       <c r="G15">
-        <v>28.54467015063683</v>
+        <v>26.73137572351897</v>
       </c>
       <c r="H15">
-        <v>6.745830168014533</v>
+        <v>6.741647862307041</v>
       </c>
       <c r="J15">
-        <v>10.2568875593587</v>
+        <v>9.457394167011307</v>
       </c>
       <c r="K15">
-        <v>14.83116341049955</v>
+        <v>13.55207862178696</v>
       </c>
       <c r="L15">
-        <v>5.318543537356199</v>
+        <v>11.13629243607198</v>
       </c>
       <c r="M15">
-        <v>14.91365213486405</v>
+        <v>9.016561381334894</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.307431095744388</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.02997900913343</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1121,49 +1205,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.30910307586523</v>
+        <v>16.2354511737575</v>
       </c>
       <c r="C16">
-        <v>9.618996884249931</v>
+        <v>10.20881321501617</v>
       </c>
       <c r="D16">
-        <v>5.843369522077169</v>
+        <v>6.221682555680967</v>
       </c>
       <c r="E16">
-        <v>7.140807177809094</v>
+        <v>7.314424244660296</v>
       </c>
       <c r="F16">
-        <v>24.05784866408304</v>
+        <v>22.59359713477889</v>
       </c>
       <c r="G16">
-        <v>28.45983383965186</v>
+        <v>26.2109692532106</v>
       </c>
       <c r="H16">
-        <v>6.551656313455687</v>
+        <v>6.541756860327662</v>
       </c>
       <c r="J16">
-        <v>10.31754022725698</v>
+        <v>9.868654080017878</v>
       </c>
       <c r="K16">
-        <v>14.98569133785921</v>
+        <v>13.85305571261283</v>
       </c>
       <c r="L16">
-        <v>5.293244279062978</v>
+        <v>11.36861620086988</v>
       </c>
       <c r="M16">
-        <v>14.46191021810363</v>
+        <v>9.182789852066094</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.295515881672078</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.59304681880444</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1171,49 +1261,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.96068723190072</v>
+        <v>15.88460069175936</v>
       </c>
       <c r="C17">
-        <v>9.5268904333234</v>
+        <v>10.16852383536769</v>
       </c>
       <c r="D17">
-        <v>5.958915143137501</v>
+        <v>6.322902006271656</v>
       </c>
       <c r="E17">
-        <v>7.588352159596727</v>
+        <v>7.769162368272274</v>
       </c>
       <c r="F17">
-        <v>24.71775708971772</v>
+        <v>23.31005406223101</v>
       </c>
       <c r="G17">
-        <v>29.37854305661655</v>
+        <v>26.83835030302341</v>
       </c>
       <c r="H17">
-        <v>5.825207649759827</v>
+        <v>5.810662956978032</v>
       </c>
       <c r="J17">
-        <v>10.52946297030256</v>
+        <v>10.2021829868244</v>
       </c>
       <c r="K17">
-        <v>15.38136000398491</v>
+        <v>14.24114951183782</v>
       </c>
       <c r="L17">
-        <v>5.429602649730198</v>
+        <v>11.65704645378756</v>
       </c>
       <c r="M17">
-        <v>14.20350198868831</v>
+        <v>9.457250826200255</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.434149833373564</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.34817805251912</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1221,49 +1317,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.7396320172241</v>
+        <v>15.64935454184651</v>
       </c>
       <c r="C18">
-        <v>9.617462383603877</v>
+        <v>10.3501284226352</v>
       </c>
       <c r="D18">
-        <v>6.313463386864142</v>
+        <v>6.699020934361798</v>
       </c>
       <c r="E18">
-        <v>8.636856062657973</v>
+        <v>8.832940999388189</v>
       </c>
       <c r="F18">
-        <v>26.10467240266125</v>
+        <v>24.59546578722631</v>
       </c>
       <c r="G18">
-        <v>31.26676820699828</v>
+        <v>28.39894066515373</v>
       </c>
       <c r="H18">
-        <v>4.578789429184663</v>
+        <v>4.559398888156201</v>
       </c>
       <c r="J18">
-        <v>10.89993840363396</v>
+        <v>10.57681508253105</v>
       </c>
       <c r="K18">
-        <v>16.04414136596115</v>
+        <v>14.78842959876685</v>
       </c>
       <c r="L18">
-        <v>5.806039262171723</v>
+        <v>12.05951054367813</v>
       </c>
       <c r="M18">
-        <v>14.08947885112274</v>
+        <v>9.878382752660988</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.804491176556886</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.25128223817659</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1271,49 +1373,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.64248808225652</v>
+        <v>15.52858389631334</v>
       </c>
       <c r="C19">
-        <v>9.847801726127017</v>
+        <v>10.70084308941918</v>
       </c>
       <c r="D19">
-        <v>6.830093865665397</v>
+        <v>7.259135457799045</v>
       </c>
       <c r="E19">
-        <v>10.15073781938393</v>
+        <v>10.36590130362062</v>
       </c>
       <c r="F19">
-        <v>27.98482488197173</v>
+        <v>26.27409650242591</v>
       </c>
       <c r="G19">
-        <v>33.80255733769504</v>
+        <v>30.55480233136185</v>
       </c>
       <c r="H19">
-        <v>3.089364575383175</v>
+        <v>3.064088565539186</v>
       </c>
       <c r="J19">
-        <v>11.38020317729675</v>
+        <v>10.99282371628007</v>
       </c>
       <c r="K19">
-        <v>16.89955787312061</v>
+        <v>15.45493361829454</v>
       </c>
       <c r="L19">
-        <v>6.445619312635833</v>
+        <v>12.54683142864418</v>
       </c>
       <c r="M19">
-        <v>14.10349533593595</v>
+        <v>10.40889528489163</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.43220909153148</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.28491428670076</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1321,49 +1429,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.90030598346658</v>
+        <v>15.73733303906963</v>
       </c>
       <c r="C20">
-        <v>10.44639474361166</v>
+        <v>11.49315755898487</v>
       </c>
       <c r="D20">
-        <v>7.753370943983913</v>
+        <v>8.282303754294741</v>
       </c>
       <c r="E20">
-        <v>12.73860501016436</v>
+        <v>12.98893595293359</v>
       </c>
       <c r="F20">
-        <v>31.12627392294848</v>
+        <v>28.94800152674018</v>
       </c>
       <c r="G20">
-        <v>37.98834232118528</v>
+        <v>34.24014601505013</v>
       </c>
       <c r="H20">
-        <v>1.693907233760248</v>
+        <v>1.717794948899803</v>
       </c>
       <c r="J20">
-        <v>12.14560148056171</v>
+        <v>11.48431019310508</v>
       </c>
       <c r="K20">
-        <v>18.25085236164606</v>
+        <v>16.41175723746031</v>
       </c>
       <c r="L20">
-        <v>7.681660127317556</v>
+        <v>13.2052453242137</v>
       </c>
       <c r="M20">
-        <v>14.47353387313587</v>
+        <v>11.24292643814861</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.642041394939207</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.68043171461012</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1371,49 +1485,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.859021084891</v>
+        <v>16.67127554991152</v>
       </c>
       <c r="C21">
-        <v>11.1196791064791</v>
+        <v>12.13892777733713</v>
       </c>
       <c r="D21">
-        <v>8.241279825213555</v>
+        <v>8.943984246387199</v>
       </c>
       <c r="E21">
-        <v>13.60512710109485</v>
+        <v>13.91150978300564</v>
       </c>
       <c r="F21">
-        <v>32.30129968370571</v>
+        <v>29.33351081085485</v>
       </c>
       <c r="G21">
-        <v>39.48579517331189</v>
+        <v>36.58442548139372</v>
       </c>
       <c r="H21">
-        <v>2.038272441129536</v>
+        <v>2.022305240612604</v>
       </c>
       <c r="J21">
-        <v>12.32374467749104</v>
+        <v>10.6246909217809</v>
       </c>
       <c r="K21">
-        <v>18.49344604685398</v>
+        <v>16.14759107418739</v>
       </c>
       <c r="L21">
-        <v>8.067251783898598</v>
+        <v>12.88066047477446</v>
       </c>
       <c r="M21">
-        <v>15.32577191849033</v>
+        <v>11.26420875760031</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.990813154404222</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.50905090224805</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1421,49 +1541,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.46136861211189</v>
+        <v>17.26112563957227</v>
       </c>
       <c r="C22">
-        <v>11.52352260199321</v>
+        <v>12.50900244196415</v>
       </c>
       <c r="D22">
-        <v>8.512031281198949</v>
+        <v>9.328509384849268</v>
       </c>
       <c r="E22">
-        <v>14.04012067804314</v>
+        <v>14.38406928067448</v>
       </c>
       <c r="F22">
-        <v>32.93239816696708</v>
+        <v>29.43886573685482</v>
       </c>
       <c r="G22">
-        <v>40.28802328758555</v>
+        <v>38.05270372768963</v>
       </c>
       <c r="H22">
-        <v>2.25210004033846</v>
+        <v>2.210845971433787</v>
       </c>
       <c r="J22">
-        <v>12.40972280527245</v>
+        <v>10.02604409247029</v>
       </c>
       <c r="K22">
-        <v>18.59772699489496</v>
+        <v>15.91299067002109</v>
       </c>
       <c r="L22">
-        <v>8.255029076725258</v>
+        <v>12.62819197461649</v>
       </c>
       <c r="M22">
-        <v>15.85542232792707</v>
+        <v>11.23640395581071</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.15526158008724</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.02064161790168</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1471,49 +1597,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.14223278745217</v>
+        <v>16.9459032307934</v>
       </c>
       <c r="C23">
-        <v>11.30953408256938</v>
+        <v>12.33070675146919</v>
       </c>
       <c r="D23">
-        <v>8.368482013466329</v>
+        <v>9.109799346263619</v>
       </c>
       <c r="E23">
-        <v>13.80940515727567</v>
+        <v>14.12743619315973</v>
       </c>
       <c r="F23">
-        <v>32.59546101699494</v>
+        <v>29.44460578877107</v>
       </c>
       <c r="G23">
-        <v>39.85911039156186</v>
+        <v>37.12596074834137</v>
       </c>
       <c r="H23">
-        <v>2.138310278555187</v>
+        <v>2.111725947608875</v>
       </c>
       <c r="J23">
-        <v>12.36330753634243</v>
+        <v>10.44194690130515</v>
       </c>
       <c r="K23">
-        <v>18.54103142444478</v>
+        <v>16.07378818688973</v>
       </c>
       <c r="L23">
-        <v>8.155268890321123</v>
+        <v>12.78662062605624</v>
       </c>
       <c r="M23">
-        <v>15.57473061878277</v>
+        <v>11.28027720085755</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.069900920225612</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.75344240815636</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1521,49 +1653,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.88168189674764</v>
+        <v>15.71642230364129</v>
       </c>
       <c r="C24">
-        <v>10.46480967092174</v>
+        <v>11.52385399448502</v>
       </c>
       <c r="D24">
-        <v>7.803802409484287</v>
+        <v>8.336127355687758</v>
       </c>
       <c r="E24">
-        <v>12.90375127573745</v>
+        <v>13.15565529296737</v>
       </c>
       <c r="F24">
-        <v>31.32223620047294</v>
+        <v>29.12764595412097</v>
       </c>
       <c r="G24">
-        <v>38.2516067584512</v>
+        <v>34.45830471544136</v>
       </c>
       <c r="H24">
-        <v>1.699783995936463</v>
+        <v>1.723539630784609</v>
       </c>
       <c r="J24">
-        <v>12.19889711580227</v>
+        <v>11.53681710770952</v>
       </c>
       <c r="K24">
-        <v>18.34862568800843</v>
+        <v>16.49167430489132</v>
       </c>
       <c r="L24">
-        <v>7.767394354463643</v>
+        <v>13.26547779960973</v>
       </c>
       <c r="M24">
-        <v>14.46769310644007</v>
+        <v>11.30362578679438</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.726938206383907</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.67664795437192</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1571,54 +1709,66 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.40943274040414</v>
+        <v>14.31100596082724</v>
       </c>
       <c r="C25">
-        <v>9.479081937884038</v>
+        <v>10.36798718945433</v>
       </c>
       <c r="D25">
-        <v>7.1499061888919</v>
+        <v>7.614540765604501</v>
       </c>
       <c r="E25">
-        <v>11.8588659068757</v>
+        <v>12.10345452738811</v>
       </c>
       <c r="F25">
-        <v>29.95855135493898</v>
+        <v>28.11267079482225</v>
       </c>
       <c r="G25">
-        <v>36.5573782433367</v>
+        <v>33.18921208882446</v>
       </c>
       <c r="H25">
-        <v>1.920592924805978</v>
+        <v>1.855484561627725</v>
       </c>
       <c r="J25">
-        <v>12.04459253214057</v>
+        <v>11.52201375099603</v>
       </c>
       <c r="K25">
-        <v>18.18557025546687</v>
+        <v>16.57640285454909</v>
       </c>
       <c r="L25">
-        <v>7.328039898837662</v>
+        <v>13.51792480202735</v>
       </c>
       <c r="M25">
-        <v>13.17862735840301</v>
+        <v>11.08403906624101</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.31466005714634</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.37400993004708</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
